--- a/AAII_Financials/Quarterly/DXF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DXF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -727,16 +727,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="E8" s="3">
-        <v>13100</v>
+        <v>12800</v>
       </c>
       <c r="F8" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="G8" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -768,10 +768,10 @@
         <v>1800</v>
       </c>
       <c r="F9" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G9" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
@@ -797,16 +797,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="E10" s="3">
-        <v>11300</v>
+        <v>11000</v>
       </c>
       <c r="F10" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G10" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
@@ -999,19 +999,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E17" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="F17" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="G17" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="H17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
@@ -1034,19 +1034,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="E18" s="3">
         <v>1100</v>
       </c>
       <c r="F18" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G18" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="H18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
@@ -1119,7 +1119,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="E21" s="3">
         <v>1200</v>
@@ -1128,10 +1128,10 @@
         <v>2600</v>
       </c>
       <c r="G21" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="H21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
@@ -1189,19 +1189,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="E23" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F23" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G23" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="H23" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
@@ -1224,16 +1224,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E24" s="3">
         <v>1900</v>
       </c>
       <c r="F24" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
@@ -1294,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
@@ -1303,10 +1303,10 @@
         <v>1900</v>
       </c>
       <c r="G26" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H26" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
@@ -1329,19 +1329,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E27" s="3">
         <v>-600</v>
       </c>
       <c r="F27" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G27" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H27" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
@@ -1411,13 +1411,13 @@
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="I29" s="3">
-        <v>-49000</v>
+        <v>-47800</v>
       </c>
       <c r="J29" s="3">
-        <v>-18300</v>
+        <v>-17800</v>
       </c>
       <c r="K29" s="3">
         <v>-88800</v>
@@ -1539,25 +1539,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E33" s="3">
         <v>-600</v>
       </c>
       <c r="F33" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G33" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H33" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="I33" s="3">
-        <v>-49500</v>
+        <v>-48300</v>
       </c>
       <c r="J33" s="3">
-        <v>-18500</v>
+        <v>-18100</v>
       </c>
       <c r="K33" s="3">
         <v>-89100</v>
@@ -1609,25 +1609,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E35" s="3">
         <v>-600</v>
       </c>
       <c r="F35" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G35" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H35" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="I35" s="3">
-        <v>-49500</v>
+        <v>-48300</v>
       </c>
       <c r="J35" s="3">
-        <v>-18500</v>
+        <v>-18100</v>
       </c>
       <c r="K35" s="3">
         <v>-89100</v>
@@ -1717,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="K41" s="3">
         <v>30200</v>
@@ -1784,16 +1784,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>91700</v>
+        <v>89500</v>
       </c>
       <c r="E43" s="3">
-        <v>84200</v>
+        <v>82100</v>
       </c>
       <c r="F43" s="3">
-        <v>123000</v>
+        <v>120000</v>
       </c>
       <c r="G43" s="3">
-        <v>119200</v>
+        <v>116300</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>73900</v>
+        <v>72100</v>
       </c>
       <c r="K43" s="3">
         <v>96400</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>15300</v>
+        <v>14900</v>
       </c>
       <c r="K44" s="3">
         <v>2100</v>
@@ -1860,7 +1860,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G45" s="3">
         <v>2200</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="K45" s="3">
         <v>6800</v>
@@ -1889,16 +1889,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>91900</v>
+        <v>89600</v>
       </c>
       <c r="E46" s="3">
-        <v>84800</v>
+        <v>82700</v>
       </c>
       <c r="F46" s="3">
-        <v>127000</v>
+        <v>123900</v>
       </c>
       <c r="G46" s="3">
-        <v>124600</v>
+        <v>121500</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>104400</v>
+        <v>101900</v>
       </c>
       <c r="K46" s="3">
         <v>135600</v>
@@ -1959,10 +1959,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
         <v>7100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>7300</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K49" s="3">
         <v>2600</v>
@@ -2111,10 +2111,10 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>73800</v>
+        <v>72000</v>
       </c>
       <c r="I52" s="3">
-        <v>78300</v>
+        <v>76400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2169,25 +2169,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>99000</v>
+        <v>96600</v>
       </c>
       <c r="E54" s="3">
-        <v>92100</v>
+        <v>89800</v>
       </c>
       <c r="F54" s="3">
-        <v>127200</v>
+        <v>124000</v>
       </c>
       <c r="G54" s="3">
-        <v>124700</v>
+        <v>121600</v>
       </c>
       <c r="H54" s="3">
-        <v>73800</v>
+        <v>72000</v>
       </c>
       <c r="I54" s="3">
-        <v>78300</v>
+        <v>76400</v>
       </c>
       <c r="J54" s="3">
-        <v>106600</v>
+        <v>104000</v>
       </c>
       <c r="K54" s="3">
         <v>138700</v>
@@ -2269,16 +2269,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E58" s="3">
         <v>28100</v>
       </c>
-      <c r="E58" s="3">
-        <v>28800</v>
-      </c>
       <c r="F58" s="3">
-        <v>32900</v>
+        <v>32100</v>
       </c>
       <c r="G58" s="3">
-        <v>32500</v>
+        <v>31700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2304,25 +2304,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="E59" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="F59" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G59" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="H59" s="3">
-        <v>25600</v>
+        <v>25000</v>
       </c>
       <c r="I59" s="3">
-        <v>22600</v>
+        <v>22100</v>
       </c>
       <c r="J59" s="3">
-        <v>18300</v>
+        <v>17800</v>
       </c>
       <c r="K59" s="3">
         <v>29100</v>
@@ -2339,25 +2339,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>41300</v>
+        <v>40300</v>
       </c>
       <c r="E60" s="3">
-        <v>39400</v>
+        <v>38400</v>
       </c>
       <c r="F60" s="3">
-        <v>38500</v>
+        <v>37600</v>
       </c>
       <c r="G60" s="3">
-        <v>38000</v>
+        <v>37100</v>
       </c>
       <c r="H60" s="3">
-        <v>25600</v>
+        <v>25000</v>
       </c>
       <c r="I60" s="3">
-        <v>22600</v>
+        <v>22100</v>
       </c>
       <c r="J60" s="3">
-        <v>20100</v>
+        <v>19600</v>
       </c>
       <c r="K60" s="3">
         <v>30100</v>
@@ -2549,25 +2549,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52900</v>
+        <v>51600</v>
       </c>
       <c r="E66" s="3">
-        <v>49900</v>
+        <v>48700</v>
       </c>
       <c r="F66" s="3">
-        <v>56200</v>
+        <v>54900</v>
       </c>
       <c r="G66" s="3">
-        <v>55400</v>
+        <v>54000</v>
       </c>
       <c r="H66" s="3">
-        <v>25600</v>
+        <v>25000</v>
       </c>
       <c r="I66" s="3">
-        <v>22600</v>
+        <v>22100</v>
       </c>
       <c r="J66" s="3">
-        <v>20100</v>
+        <v>19600</v>
       </c>
       <c r="K66" s="3">
         <v>30100</v>
@@ -2739,25 +2739,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="E72" s="3">
-        <v>-12800</v>
+        <v>-12500</v>
       </c>
       <c r="F72" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="G72" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="H72" s="3">
-        <v>-23800</v>
+        <v>-23200</v>
       </c>
       <c r="I72" s="3">
-        <v>-16400</v>
+        <v>-16000</v>
       </c>
       <c r="J72" s="3">
-        <v>14600</v>
+        <v>14300</v>
       </c>
       <c r="K72" s="3">
         <v>34300</v>
@@ -2879,25 +2879,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46100</v>
+        <v>45000</v>
       </c>
       <c r="E76" s="3">
-        <v>42100</v>
+        <v>41100</v>
       </c>
       <c r="F76" s="3">
-        <v>70900</v>
+        <v>69200</v>
       </c>
       <c r="G76" s="3">
-        <v>69300</v>
+        <v>67600</v>
       </c>
       <c r="H76" s="3">
-        <v>48200</v>
+        <v>47000</v>
       </c>
       <c r="I76" s="3">
-        <v>55700</v>
+        <v>54300</v>
       </c>
       <c r="J76" s="3">
-        <v>86500</v>
+        <v>84400</v>
       </c>
       <c r="K76" s="3">
         <v>108600</v>
@@ -2989,25 +2989,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E81" s="3">
         <v>-600</v>
       </c>
       <c r="F81" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G81" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H81" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="I81" s="3">
-        <v>-49500</v>
+        <v>-48300</v>
       </c>
       <c r="J81" s="3">
-        <v>-18500</v>
+        <v>-18100</v>
       </c>
       <c r="K81" s="3">
         <v>-89100</v>
@@ -3057,7 +3057,7 @@
         <v>600</v>
       </c>
       <c r="J83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>900</v>
@@ -3249,25 +3249,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F89" s="3">
         <v>1600</v>
       </c>
       <c r="G89" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H89" s="3">
         <v>2600</v>
       </c>
       <c r="I89" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="J89" s="3">
-        <v>-22500</v>
+        <v>-22000</v>
       </c>
       <c r="K89" s="3">
         <v>-107300</v>
@@ -3407,22 +3407,22 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F94" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="G94" s="3">
-        <v>-19500</v>
+        <v>-19000</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-19200</v>
+        <v>-18800</v>
       </c>
       <c r="J94" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K94" s="3">
         <v>-8700</v>
@@ -3597,13 +3597,13 @@
         <v>-800</v>
       </c>
       <c r="E100" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="F100" s="3">
         <v>500</v>
       </c>
       <c r="G100" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
@@ -3673,16 +3673,16 @@
         <v>-3000</v>
       </c>
       <c r="G102" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="H102" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I102" s="3">
-        <v>-24100</v>
+        <v>-23500</v>
       </c>
       <c r="J102" s="3">
-        <v>-20100</v>
+        <v>-19600</v>
       </c>
       <c r="K102" s="3">
         <v>-116000</v>

--- a/AAII_Financials/Quarterly/DXF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DXF_QTR_FIN.xlsx
@@ -727,16 +727,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="E8" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="F8" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="G8" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -765,13 +765,13 @@
         <v>1400</v>
       </c>
       <c r="E9" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F9" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
@@ -797,16 +797,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="E10" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="F10" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G10" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
@@ -999,19 +999,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E17" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="F17" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G17" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
@@ -1034,19 +1034,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="E18" s="3">
         <v>1100</v>
       </c>
       <c r="F18" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G18" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="H18" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
@@ -1119,19 +1119,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="E21" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F21" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G21" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="H21" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
@@ -1189,19 +1189,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="E23" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F23" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G23" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="H23" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
@@ -1224,16 +1224,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E24" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G24" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
@@ -1294,19 +1294,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
       </c>
       <c r="F26" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G26" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H26" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
@@ -1329,19 +1329,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E27" s="3">
         <v>-600</v>
       </c>
       <c r="F27" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G27" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H27" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
@@ -1411,13 +1411,13 @@
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="I29" s="3">
-        <v>-47800</v>
+        <v>-49600</v>
       </c>
       <c r="J29" s="3">
-        <v>-17800</v>
+        <v>-18500</v>
       </c>
       <c r="K29" s="3">
         <v>-88800</v>
@@ -1539,25 +1539,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E33" s="3">
         <v>-600</v>
       </c>
       <c r="F33" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G33" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H33" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="I33" s="3">
-        <v>-48300</v>
+        <v>-50100</v>
       </c>
       <c r="J33" s="3">
-        <v>-18100</v>
+        <v>-18800</v>
       </c>
       <c r="K33" s="3">
         <v>-89100</v>
@@ -1609,25 +1609,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E35" s="3">
         <v>-600</v>
       </c>
       <c r="F35" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G35" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H35" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="I35" s="3">
-        <v>-48300</v>
+        <v>-50100</v>
       </c>
       <c r="J35" s="3">
-        <v>-18100</v>
+        <v>-18800</v>
       </c>
       <c r="K35" s="3">
         <v>-89100</v>
@@ -1717,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="K41" s="3">
         <v>30200</v>
@@ -1784,16 +1784,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>89500</v>
+        <v>92900</v>
       </c>
       <c r="E43" s="3">
-        <v>82100</v>
+        <v>85200</v>
       </c>
       <c r="F43" s="3">
-        <v>120000</v>
+        <v>124500</v>
       </c>
       <c r="G43" s="3">
-        <v>116300</v>
+        <v>120700</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>72100</v>
+        <v>74800</v>
       </c>
       <c r="K43" s="3">
         <v>96400</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="K44" s="3">
         <v>2100</v>
@@ -1857,10 +1857,10 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G45" s="3">
         <v>2200</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="K45" s="3">
         <v>6800</v>
@@ -1889,16 +1889,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>89600</v>
+        <v>93000</v>
       </c>
       <c r="E46" s="3">
-        <v>82700</v>
+        <v>85800</v>
       </c>
       <c r="F46" s="3">
-        <v>123900</v>
+        <v>128600</v>
       </c>
       <c r="G46" s="3">
-        <v>121500</v>
+        <v>126100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>101900</v>
+        <v>105700</v>
       </c>
       <c r="K46" s="3">
         <v>135600</v>
@@ -1959,10 +1959,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="E48" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K49" s="3">
         <v>2600</v>
@@ -2111,10 +2111,10 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>72000</v>
+        <v>74700</v>
       </c>
       <c r="I52" s="3">
-        <v>76400</v>
+        <v>79300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2169,25 +2169,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>96600</v>
+        <v>100200</v>
       </c>
       <c r="E54" s="3">
-        <v>89800</v>
+        <v>93200</v>
       </c>
       <c r="F54" s="3">
-        <v>124000</v>
+        <v>128700</v>
       </c>
       <c r="G54" s="3">
-        <v>121600</v>
+        <v>126200</v>
       </c>
       <c r="H54" s="3">
-        <v>72000</v>
+        <v>74700</v>
       </c>
       <c r="I54" s="3">
-        <v>76400</v>
+        <v>79300</v>
       </c>
       <c r="J54" s="3">
-        <v>104000</v>
+        <v>107900</v>
       </c>
       <c r="K54" s="3">
         <v>138700</v>
@@ -2269,16 +2269,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27400</v>
+        <v>28400</v>
       </c>
       <c r="E58" s="3">
-        <v>28100</v>
+        <v>29100</v>
       </c>
       <c r="F58" s="3">
-        <v>32100</v>
+        <v>33300</v>
       </c>
       <c r="G58" s="3">
-        <v>31700</v>
+        <v>32900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2304,25 +2304,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="E59" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="F59" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="G59" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="H59" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="I59" s="3">
-        <v>22100</v>
+        <v>22900</v>
       </c>
       <c r="J59" s="3">
-        <v>17800</v>
+        <v>18500</v>
       </c>
       <c r="K59" s="3">
         <v>29100</v>
@@ -2339,25 +2339,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>40300</v>
+        <v>41800</v>
       </c>
       <c r="E60" s="3">
-        <v>38400</v>
+        <v>39900</v>
       </c>
       <c r="F60" s="3">
-        <v>37600</v>
+        <v>39000</v>
       </c>
       <c r="G60" s="3">
-        <v>37100</v>
+        <v>38500</v>
       </c>
       <c r="H60" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="I60" s="3">
-        <v>22100</v>
+        <v>22900</v>
       </c>
       <c r="J60" s="3">
-        <v>19600</v>
+        <v>20300</v>
       </c>
       <c r="K60" s="3">
         <v>30100</v>
@@ -2549,25 +2549,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51600</v>
+        <v>53500</v>
       </c>
       <c r="E66" s="3">
-        <v>48700</v>
+        <v>50600</v>
       </c>
       <c r="F66" s="3">
-        <v>54900</v>
+        <v>56900</v>
       </c>
       <c r="G66" s="3">
-        <v>54000</v>
+        <v>56000</v>
       </c>
       <c r="H66" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="I66" s="3">
-        <v>22100</v>
+        <v>22900</v>
       </c>
       <c r="J66" s="3">
-        <v>19600</v>
+        <v>20300</v>
       </c>
       <c r="K66" s="3">
         <v>30100</v>
@@ -2739,25 +2739,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8600</v>
+        <v>-9000</v>
       </c>
       <c r="E72" s="3">
-        <v>-12500</v>
+        <v>-13000</v>
       </c>
       <c r="F72" s="3">
+        <v>15300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="J72" s="3">
         <v>14800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>13200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-23200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>14300</v>
       </c>
       <c r="K72" s="3">
         <v>34300</v>
@@ -2879,25 +2879,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="E76" s="3">
-        <v>41100</v>
+        <v>42600</v>
       </c>
       <c r="F76" s="3">
-        <v>69200</v>
+        <v>71800</v>
       </c>
       <c r="G76" s="3">
-        <v>67600</v>
+        <v>70200</v>
       </c>
       <c r="H76" s="3">
-        <v>47000</v>
+        <v>48800</v>
       </c>
       <c r="I76" s="3">
-        <v>54300</v>
+        <v>56300</v>
       </c>
       <c r="J76" s="3">
-        <v>84400</v>
+        <v>87600</v>
       </c>
       <c r="K76" s="3">
         <v>108600</v>
@@ -2989,25 +2989,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E81" s="3">
         <v>-600</v>
       </c>
       <c r="F81" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G81" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H81" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="I81" s="3">
-        <v>-48300</v>
+        <v>-50100</v>
       </c>
       <c r="J81" s="3">
-        <v>-18100</v>
+        <v>-18800</v>
       </c>
       <c r="K81" s="3">
         <v>-89100</v>
@@ -3057,7 +3057,7 @@
         <v>600</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>900</v>
@@ -3249,25 +3249,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F89" s="3">
         <v>1600</v>
       </c>
       <c r="G89" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="H89" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I89" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="J89" s="3">
-        <v>-22000</v>
+        <v>-22800</v>
       </c>
       <c r="K89" s="3">
         <v>-107300</v>
@@ -3302,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
@@ -3407,22 +3407,22 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="J94" s="3">
         <v>2400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>2300</v>
       </c>
       <c r="K94" s="3">
         <v>-8700</v>
@@ -3597,13 +3597,13 @@
         <v>-800</v>
       </c>
       <c r="E100" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="F100" s="3">
         <v>500</v>
       </c>
       <c r="G100" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
@@ -3670,19 +3670,19 @@
         <v>400</v>
       </c>
       <c r="F102" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="G102" s="3">
-        <v>-10500</v>
+        <v>-10900</v>
       </c>
       <c r="H102" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I102" s="3">
-        <v>-23500</v>
+        <v>-24400</v>
       </c>
       <c r="J102" s="3">
-        <v>-19600</v>
+        <v>-20400</v>
       </c>
       <c r="K102" s="3">
         <v>-116000</v>

--- a/AAII_Financials/Quarterly/DXF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DXF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>DXF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="E8" s="3">
-        <v>13300</v>
+        <v>11500</v>
       </c>
       <c r="F8" s="3">
-        <v>7300</v>
+        <v>13900</v>
       </c>
       <c r="G8" s="3">
-        <v>17400</v>
+        <v>7700</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>14200</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -751,33 +755,36 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>12300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E9" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="F9" s="3">
         <v>2000</v>
       </c>
       <c r="G9" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
+        <v>2100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -785,34 +792,37 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>24700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="E10" s="3">
-        <v>11400</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="3">
-        <v>5400</v>
+        <v>11900</v>
       </c>
       <c r="G10" s="3">
-        <v>11800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
+        <v>5600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -820,14 +830,17 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>-12300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +854,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,8 +890,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,8 +928,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,8 +966,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1004,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,78 +1019,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="E17" s="3">
-        <v>12100</v>
+        <v>4500</v>
       </c>
       <c r="F17" s="3">
-        <v>4700</v>
+        <v>12700</v>
       </c>
       <c r="G17" s="3">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="H17" s="3">
-        <v>600</v>
+        <v>8100</v>
       </c>
       <c r="I17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>49100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6700</v>
+        <v>1900</v>
       </c>
       <c r="E18" s="3">
-        <v>1100</v>
+        <v>7000</v>
       </c>
       <c r="F18" s="3">
-        <v>2600</v>
+        <v>1200</v>
       </c>
       <c r="G18" s="3">
-        <v>6900</v>
+        <v>2700</v>
       </c>
       <c r="H18" s="3">
-        <v>-600</v>
+        <v>6100</v>
       </c>
       <c r="I18" s="3">
+        <v>500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-36700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1111,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1093,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1113,43 +1147,49 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6900</v>
+        <v>2100</v>
       </c>
       <c r="E21" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
-        <v>2700</v>
-      </c>
       <c r="G21" s="3">
-        <v>7100</v>
+        <v>2800</v>
       </c>
       <c r="H21" s="3">
-        <v>-600</v>
+        <v>6200</v>
       </c>
       <c r="I21" s="3">
+        <v>600</v>
+      </c>
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1183,63 +1223,69 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6700</v>
+        <v>1900</v>
       </c>
       <c r="E23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
-        <v>2600</v>
-      </c>
       <c r="G23" s="3">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="H23" s="3">
-        <v>-600</v>
+        <v>6200</v>
       </c>
       <c r="I23" s="3">
+        <v>600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-36700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
+      <c r="H24" s="3">
+        <v>2200</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1248,13 +1294,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>7600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5000</v>
+        <v>3700</v>
       </c>
       <c r="E26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
-        <v>2000</v>
-      </c>
       <c r="G26" s="3">
-        <v>4900</v>
+        <v>2100</v>
       </c>
       <c r="H26" s="3">
-        <v>-600</v>
+        <v>4000</v>
       </c>
       <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-44300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="E27" s="3">
-        <v>-600</v>
+        <v>4200</v>
       </c>
       <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
-        <v>3900</v>
-      </c>
       <c r="H27" s="3">
-        <v>-600</v>
+        <v>3200</v>
       </c>
       <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-44300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1451,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1410,26 +1471,29 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>-6900</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>-49600</v>
+        <v>-7200</v>
       </c>
       <c r="J29" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-18500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-88800</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,8 +1565,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1513,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1533,43 +1603,49 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="E33" s="3">
-        <v>-600</v>
+        <v>4200</v>
       </c>
       <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
-        <v>3900</v>
-      </c>
       <c r="H33" s="3">
-        <v>-7500</v>
+        <v>3200</v>
       </c>
       <c r="I33" s="3">
-        <v>-50100</v>
+        <v>-7000</v>
       </c>
       <c r="J33" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-18800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-89100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-44300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="E35" s="3">
-        <v>-600</v>
+        <v>4200</v>
       </c>
       <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
-        <v>3900</v>
-      </c>
       <c r="H35" s="3">
-        <v>-7500</v>
+        <v>3200</v>
       </c>
       <c r="I35" s="3">
-        <v>-50100</v>
+        <v>-7000</v>
       </c>
       <c r="J35" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-18800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-89100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-44300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,8 +1794,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1717,34 +1804,37 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>3200</v>
-      </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>9200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>101700</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1772,49 +1862,55 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>92900</v>
+        <v>93600</v>
       </c>
       <c r="E43" s="3">
-        <v>85200</v>
+        <v>97300</v>
       </c>
       <c r="F43" s="3">
-        <v>124500</v>
+        <v>89300</v>
       </c>
       <c r="G43" s="3">
-        <v>120700</v>
+        <v>130400</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>126400</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>74800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>96400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1830,96 +1926,105 @@
       <c r="G44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>15500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>4000</v>
-      </c>
       <c r="G45" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>93000</v>
+        <v>93600</v>
       </c>
       <c r="E46" s="3">
-        <v>85800</v>
+        <v>97400</v>
       </c>
       <c r="F46" s="3">
-        <v>128600</v>
+        <v>89900</v>
       </c>
       <c r="G46" s="3">
-        <v>126100</v>
+        <v>134700</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>132100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>105700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>135600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1953,43 +2058,49 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="E48" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1999,32 +2110,35 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>1800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,8 +2210,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2104,20 +2224,20 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>100</v>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>74700</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>79300</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+        <v>78300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>83000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2125,11 +2245,14 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2286,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100200</v>
+        <v>101000</v>
       </c>
       <c r="E54" s="3">
-        <v>93200</v>
+        <v>105000</v>
       </c>
       <c r="F54" s="3">
-        <v>128700</v>
+        <v>97600</v>
       </c>
       <c r="G54" s="3">
-        <v>126200</v>
+        <v>134800</v>
       </c>
       <c r="H54" s="3">
-        <v>74700</v>
+        <v>132200</v>
       </c>
       <c r="I54" s="3">
-        <v>79300</v>
+        <v>78300</v>
       </c>
       <c r="J54" s="3">
+        <v>83000</v>
+      </c>
+      <c r="K54" s="3">
         <v>107900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>138700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,8 +2358,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2245,43 +2376,46 @@
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28400</v>
+        <v>26300</v>
       </c>
       <c r="E58" s="3">
-        <v>29100</v>
+        <v>29800</v>
       </c>
       <c r="F58" s="3">
-        <v>33300</v>
+        <v>30500</v>
       </c>
       <c r="G58" s="3">
-        <v>32900</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+        <v>34900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>34400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2298,78 +2432,87 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13400</v>
+        <v>9800</v>
       </c>
       <c r="E59" s="3">
-        <v>10800</v>
+        <v>14100</v>
       </c>
       <c r="F59" s="3">
-        <v>5600</v>
+        <v>11300</v>
       </c>
       <c r="G59" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="H59" s="3">
-        <v>25900</v>
+        <v>5900</v>
       </c>
       <c r="I59" s="3">
-        <v>22900</v>
+        <v>27200</v>
       </c>
       <c r="J59" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K59" s="3">
         <v>18500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>43800</v>
+      </c>
+      <c r="F60" s="3">
         <v>41800</v>
       </c>
-      <c r="E60" s="3">
-        <v>39900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>39000</v>
-      </c>
       <c r="G60" s="3">
-        <v>38500</v>
+        <v>40800</v>
       </c>
       <c r="H60" s="3">
-        <v>25900</v>
+        <v>40300</v>
       </c>
       <c r="I60" s="3">
-        <v>22900</v>
+        <v>27200</v>
       </c>
       <c r="J60" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K60" s="3">
         <v>20300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,8 +2546,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2438,8 +2584,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2698,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53500</v>
+        <v>49100</v>
       </c>
       <c r="E66" s="3">
-        <v>50600</v>
+        <v>56000</v>
       </c>
       <c r="F66" s="3">
-        <v>56900</v>
+        <v>53000</v>
       </c>
       <c r="G66" s="3">
-        <v>56000</v>
+        <v>59600</v>
       </c>
       <c r="H66" s="3">
-        <v>25900</v>
+        <v>58700</v>
       </c>
       <c r="I66" s="3">
-        <v>22900</v>
+        <v>27200</v>
       </c>
       <c r="J66" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K66" s="3">
         <v>20300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +2904,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9000</v>
+        <v>-6500</v>
       </c>
       <c r="E72" s="3">
-        <v>-13000</v>
+        <v>-9400</v>
       </c>
       <c r="F72" s="3">
-        <v>15300</v>
+        <v>-13600</v>
       </c>
       <c r="G72" s="3">
-        <v>13700</v>
+        <v>16100</v>
       </c>
       <c r="H72" s="3">
-        <v>-24100</v>
+        <v>14400</v>
       </c>
       <c r="I72" s="3">
-        <v>-16600</v>
+        <v>-25200</v>
       </c>
       <c r="J72" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="K72" s="3">
         <v>14800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>122300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3056,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46700</v>
+        <v>51900</v>
       </c>
       <c r="E76" s="3">
-        <v>42600</v>
+        <v>48900</v>
       </c>
       <c r="F76" s="3">
-        <v>71800</v>
+        <v>44700</v>
       </c>
       <c r="G76" s="3">
-        <v>70200</v>
+        <v>75200</v>
       </c>
       <c r="H76" s="3">
-        <v>48800</v>
+        <v>73500</v>
       </c>
       <c r="I76" s="3">
-        <v>56300</v>
+        <v>51100</v>
       </c>
       <c r="J76" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K76" s="3">
         <v>87600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>108600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>195000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="E81" s="3">
-        <v>-600</v>
+        <v>4200</v>
       </c>
       <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
-        <v>3900</v>
-      </c>
       <c r="H81" s="3">
-        <v>-7500</v>
+        <v>3200</v>
       </c>
       <c r="I81" s="3">
-        <v>-50100</v>
+        <v>-7000</v>
       </c>
       <c r="J81" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-18800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-89100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-44300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3231,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3042,34 +3241,37 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>700</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
-        <v>2300</v>
-      </c>
       <c r="F89" s="3">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="G89" s="3">
-        <v>6400</v>
+        <v>1700</v>
       </c>
       <c r="H89" s="3">
-        <v>2700</v>
+        <v>3900</v>
       </c>
       <c r="I89" s="3">
-        <v>-5000</v>
+        <v>2800</v>
       </c>
       <c r="J89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-22800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-107300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>-46200</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,8 +3513,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3302,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2200</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
@@ -3328,8 +3549,11 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,8 +3625,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3407,34 +3637,37 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-5200</v>
+        <v>2600</v>
       </c>
       <c r="G94" s="3">
-        <v>-19700</v>
+        <v>-5400</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="I94" s="3">
-        <v>-19500</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K94" s="3">
         <v>2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,28 +3831,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-800</v>
+        <v>-1900</v>
       </c>
       <c r="E100" s="3">
-        <v>-4400</v>
+        <v>-900</v>
       </c>
       <c r="F100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
+      <c r="H100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>4300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
@@ -3623,25 +3869,28 @@
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3652,45 +3901,51 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
-        <v>-3100</v>
-      </c>
       <c r="G102" s="3">
-        <v>-10900</v>
+        <v>-3200</v>
       </c>
       <c r="H102" s="3">
-        <v>2500</v>
+        <v>-14100</v>
       </c>
       <c r="I102" s="3">
-        <v>-24400</v>
+        <v>2700</v>
       </c>
       <c r="J102" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-20400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-116000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DXF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DXF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>DXF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6500</v>
+        <v>7900</v>
       </c>
       <c r="E8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F8" s="3">
         <v>11500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7700</v>
       </c>
-      <c r="H8" s="3">
-        <v>14200</v>
-      </c>
       <c r="I8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -758,74 +762,80 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>12300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E9" s="3">
         <v>1500</v>
       </c>
       <c r="F9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2300</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>24700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10000</v>
       </c>
-      <c r="F10" s="3">
-        <v>11900</v>
-      </c>
       <c r="G10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H10" s="3">
         <v>5600</v>
       </c>
-      <c r="H10" s="3">
-        <v>11300</v>
-      </c>
       <c r="I10" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
+        <v>11400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1800</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
@@ -833,14 +843,17 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>-12300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,8 +948,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -969,8 +989,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4600</v>
+        <v>7300</v>
       </c>
       <c r="E17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
-        <v>12700</v>
-      </c>
       <c r="G17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H17" s="3">
         <v>5000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>49100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-36700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1145,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1130,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1150,46 +1184,52 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="E21" s="3">
-        <v>7200</v>
+        <v>2200</v>
       </c>
       <c r="F21" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2800</v>
       </c>
-      <c r="H21" s="3">
-        <v>6200</v>
-      </c>
       <c r="I21" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1226,70 +1266,76 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-36700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>1700</v>
+        <v>-1800</v>
       </c>
       <c r="F24" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="G24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1297,13 +1343,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>7600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
-        <v>5200</v>
-      </c>
       <c r="F26" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
-        <v>4000</v>
-      </c>
       <c r="I26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-44300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
-        <v>1600</v>
-      </c>
       <c r="H27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I27" s="3">
         <v>3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-44300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1474,26 +1535,29 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>-7200</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K29" s="3">
         <v>-52000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-18500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-88800</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1635,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1586,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1606,46 +1676,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
-        <v>1600</v>
-      </c>
       <c r="H33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I33" s="3">
         <v>3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-52500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-89100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-44300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
-        <v>1600</v>
-      </c>
       <c r="H35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I35" s="3">
         <v>3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-52500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-89100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-44300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,8 +1881,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1807,34 +1894,37 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>9200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>101700</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1865,69 +1955,75 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>93600</v>
+        <v>96400</v>
       </c>
       <c r="E43" s="3">
-        <v>97300</v>
+        <v>94000</v>
       </c>
       <c r="F43" s="3">
-        <v>89300</v>
+        <v>97700</v>
       </c>
       <c r="G43" s="3">
-        <v>130400</v>
+        <v>89600</v>
       </c>
       <c r="H43" s="3">
-        <v>126400</v>
+        <v>131000</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>127000</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>74800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>96400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -1936,95 +2032,104 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>15500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
-        <v>2300</v>
-      </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>93600</v>
+        <v>96500</v>
       </c>
       <c r="E46" s="3">
-        <v>97400</v>
+        <v>94100</v>
       </c>
       <c r="F46" s="3">
-        <v>89900</v>
+        <v>97800</v>
       </c>
       <c r="G46" s="3">
-        <v>134700</v>
+        <v>90300</v>
       </c>
       <c r="H46" s="3">
-        <v>132100</v>
+        <v>135300</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>132600</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>105700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>135600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2061,46 +2166,52 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="E48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F48" s="3">
         <v>7600</v>
       </c>
-      <c r="F48" s="3">
-        <v>7700</v>
-      </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2113,32 +2224,35 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>1800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,8 +2330,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2227,32 +2347,35 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>100</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>78300</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K52" s="3">
         <v>83000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>101000</v>
+        <v>103600</v>
       </c>
       <c r="E54" s="3">
-        <v>105000</v>
+        <v>101400</v>
       </c>
       <c r="F54" s="3">
-        <v>97600</v>
+        <v>105400</v>
       </c>
       <c r="G54" s="3">
-        <v>134800</v>
+        <v>98000</v>
       </c>
       <c r="H54" s="3">
-        <v>132200</v>
+        <v>135400</v>
       </c>
       <c r="I54" s="3">
-        <v>78300</v>
+        <v>132800</v>
       </c>
       <c r="J54" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K54" s="3">
         <v>83000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>107900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>138700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,25 +2489,26 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2386,39 +2517,42 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26300</v>
+        <v>26200</v>
       </c>
       <c r="E58" s="3">
-        <v>29800</v>
+        <v>26400</v>
       </c>
       <c r="F58" s="3">
-        <v>30500</v>
+        <v>29900</v>
       </c>
       <c r="G58" s="3">
-        <v>34900</v>
+        <v>30600</v>
       </c>
       <c r="H58" s="3">
-        <v>34400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>35100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>34600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2435,84 +2569,93 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9800</v>
+        <v>11800</v>
       </c>
       <c r="E59" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F59" s="3">
         <v>14100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>5900</v>
       </c>
       <c r="H59" s="3">
         <v>5900</v>
       </c>
       <c r="I59" s="3">
-        <v>27200</v>
+        <v>5900</v>
       </c>
       <c r="J59" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K59" s="3">
         <v>24000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36100</v>
+        <v>38000</v>
       </c>
       <c r="E60" s="3">
-        <v>43800</v>
+        <v>36300</v>
       </c>
       <c r="F60" s="3">
-        <v>41800</v>
+        <v>44000</v>
       </c>
       <c r="G60" s="3">
-        <v>40800</v>
+        <v>42000</v>
       </c>
       <c r="H60" s="3">
-        <v>40300</v>
+        <v>41000</v>
       </c>
       <c r="I60" s="3">
-        <v>27200</v>
+        <v>40500</v>
       </c>
       <c r="J60" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K60" s="3">
         <v>24000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>30100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2549,8 +2692,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>49100</v>
+        <v>51100</v>
       </c>
       <c r="E66" s="3">
-        <v>56000</v>
+        <v>49300</v>
       </c>
       <c r="F66" s="3">
-        <v>53000</v>
+        <v>56300</v>
       </c>
       <c r="G66" s="3">
-        <v>59600</v>
+        <v>53200</v>
       </c>
       <c r="H66" s="3">
-        <v>58700</v>
+        <v>59900</v>
       </c>
       <c r="I66" s="3">
-        <v>27200</v>
+        <v>59000</v>
       </c>
       <c r="J66" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K66" s="3">
         <v>24000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9400</v>
       </c>
-      <c r="F72" s="3">
-        <v>-13600</v>
-      </c>
       <c r="G72" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="H72" s="3">
         <v>16100</v>
       </c>
-      <c r="H72" s="3">
-        <v>14400</v>
-      </c>
       <c r="I72" s="3">
-        <v>-25200</v>
+        <v>14500</v>
       </c>
       <c r="J72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-17400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>122300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51900</v>
+        <v>52500</v>
       </c>
       <c r="E76" s="3">
-        <v>48900</v>
+        <v>52100</v>
       </c>
       <c r="F76" s="3">
-        <v>44700</v>
+        <v>49100</v>
       </c>
       <c r="G76" s="3">
-        <v>75200</v>
+        <v>44900</v>
       </c>
       <c r="H76" s="3">
-        <v>73500</v>
+        <v>75500</v>
       </c>
       <c r="I76" s="3">
-        <v>51100</v>
+        <v>73800</v>
       </c>
       <c r="J76" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K76" s="3">
         <v>59000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>87600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>108600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>195000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
-        <v>1600</v>
-      </c>
       <c r="H81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I81" s="3">
         <v>3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-52500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-89100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-44300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3244,11 +3443,11 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -3256,22 +3455,25 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
-        <v>2400</v>
-      </c>
       <c r="G89" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H89" s="3">
         <v>1700</v>
       </c>
-      <c r="H89" s="3">
-        <v>3900</v>
-      </c>
       <c r="I89" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J89" s="3">
         <v>2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-107300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>-46200</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,25 +3734,26 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
@@ -3552,8 +3773,11 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,8 +3855,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3640,34 +3870,37 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>2600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,32 +4077,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3872,8 +4118,11 @@
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3881,14 +4130,14 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -3904,14 +4153,17 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3919,33 +4171,36 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-25600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-116000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DXF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DXF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>DXF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,103 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42277</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>11800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I8" s="3">
         <v>7900</v>
       </c>
-      <c r="E8" s="3">
-        <v>6600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>13900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>14300</v>
-      </c>
       <c r="J8" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -765,95 +769,104 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>12300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
-        <v>2900</v>
-      </c>
       <c r="J9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>24700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6200</v>
+        <v>6700</v>
       </c>
       <c r="E10" s="3">
-        <v>5000</v>
+        <v>6300</v>
       </c>
       <c r="F10" s="3">
-        <v>10000</v>
+        <v>5100</v>
       </c>
       <c r="G10" s="3">
-        <v>12000</v>
+        <v>10300</v>
       </c>
       <c r="H10" s="3">
-        <v>5600</v>
+        <v>12200</v>
       </c>
       <c r="I10" s="3">
-        <v>11400</v>
+        <v>5800</v>
       </c>
       <c r="J10" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>-12300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,8 +968,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,8 +1012,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7300</v>
+        <v>5900</v>
       </c>
       <c r="E17" s="3">
-        <v>4700</v>
+        <v>7400</v>
       </c>
       <c r="F17" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="G17" s="3">
-        <v>12800</v>
+        <v>4600</v>
       </c>
       <c r="H17" s="3">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="I17" s="3">
-        <v>8100</v>
+        <v>5100</v>
       </c>
       <c r="J17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>49100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
-        <v>7000</v>
-      </c>
       <c r="G18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3">
-        <v>2700</v>
-      </c>
       <c r="I18" s="3">
-        <v>6100</v>
+        <v>2800</v>
       </c>
       <c r="J18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-36700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,8 +1179,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1167,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1187,49 +1221,55 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2200</v>
       </c>
-      <c r="F21" s="3">
-        <v>7300</v>
-      </c>
       <c r="G21" s="3">
-        <v>1300</v>
+        <v>7400</v>
       </c>
       <c r="H21" s="3">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="I21" s="3">
-        <v>6300</v>
+        <v>2900</v>
       </c>
       <c r="J21" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,49 +1309,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
-        <v>1900</v>
-      </c>
       <c r="F23" s="3">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="G23" s="3">
-        <v>1200</v>
+        <v>7200</v>
       </c>
       <c r="H23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
-        <v>6200</v>
-      </c>
       <c r="J23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-36700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1319,26 +1365,26 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1346,13 +1392,16 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>7600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
-        <v>3700</v>
-      </c>
       <c r="F26" s="3">
-        <v>5300</v>
+        <v>3800</v>
       </c>
       <c r="G26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-44300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="3">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="F27" s="3">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="G27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
-        <v>3200</v>
-      </c>
       <c r="J27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-44300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1538,26 +1599,29 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-7300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-52000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-18500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-88800</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,8 +1705,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1659,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1679,49 +1749,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="3">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="F33" s="3">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="G33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
-        <v>3200</v>
-      </c>
       <c r="J33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-52500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-89100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-44300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E35" s="3">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="F35" s="3">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="G35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
-        <v>3200</v>
-      </c>
       <c r="J35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-52500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-89100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-44300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42277</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,8 +1968,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1897,34 +1984,37 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>3300</v>
-      </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>9200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>101700</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,55 +2048,61 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>98500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>96000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>99800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>91500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>133800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>129600</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>74800</v>
+      </c>
+      <c r="N43" s="3">
         <v>96400</v>
       </c>
-      <c r="E43" s="3">
-        <v>94000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>97700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>89600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>131000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>127000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>74800</v>
-      </c>
-      <c r="M43" s="3">
-        <v>96400</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2035,19 +2131,22 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>15500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2055,81 +2154,87 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>4200</v>
-      </c>
       <c r="I45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>6200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>96500</v>
+        <v>103400</v>
       </c>
       <c r="E46" s="3">
-        <v>94100</v>
+        <v>98600</v>
       </c>
       <c r="F46" s="3">
-        <v>97800</v>
+        <v>96000</v>
       </c>
       <c r="G46" s="3">
-        <v>90300</v>
+        <v>99900</v>
       </c>
       <c r="H46" s="3">
-        <v>135300</v>
+        <v>92200</v>
       </c>
       <c r="I46" s="3">
-        <v>132600</v>
+        <v>138100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>135400</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>105700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>135600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2169,49 +2274,55 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E48" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F48" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="G48" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2227,32 +2338,35 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>1800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,8 +2450,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2350,32 +2470,35 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
-        <v>100</v>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>78600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>83000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>105800</v>
+      </c>
+      <c r="F54" s="3">
         <v>103600</v>
       </c>
-      <c r="E54" s="3">
-        <v>101400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>105400</v>
-      </c>
       <c r="G54" s="3">
-        <v>98000</v>
+        <v>107600</v>
       </c>
       <c r="H54" s="3">
-        <v>135400</v>
+        <v>100100</v>
       </c>
       <c r="I54" s="3">
-        <v>132800</v>
+        <v>138300</v>
       </c>
       <c r="J54" s="3">
+        <v>135600</v>
+      </c>
+      <c r="K54" s="3">
         <v>78600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>107900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>138700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,8 +2620,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2520,42 +2651,45 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="E58" s="3">
-        <v>26400</v>
+        <v>26700</v>
       </c>
       <c r="F58" s="3">
-        <v>29900</v>
+        <v>27000</v>
       </c>
       <c r="G58" s="3">
-        <v>30600</v>
+        <v>30500</v>
       </c>
       <c r="H58" s="3">
-        <v>35100</v>
+        <v>31300</v>
       </c>
       <c r="I58" s="3">
-        <v>34600</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+        <v>35800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>35300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2572,90 +2706,99 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11800</v>
+        <v>14100</v>
       </c>
       <c r="E59" s="3">
-        <v>9900</v>
+        <v>12100</v>
       </c>
       <c r="F59" s="3">
-        <v>14100</v>
+        <v>10100</v>
       </c>
       <c r="G59" s="3">
-        <v>11300</v>
+        <v>14400</v>
       </c>
       <c r="H59" s="3">
-        <v>5900</v>
+        <v>11600</v>
       </c>
       <c r="I59" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="J59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K59" s="3">
         <v>27300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38000</v>
+        <v>40900</v>
       </c>
       <c r="E60" s="3">
-        <v>36300</v>
+        <v>38800</v>
       </c>
       <c r="F60" s="3">
-        <v>44000</v>
+        <v>37100</v>
       </c>
       <c r="G60" s="3">
-        <v>42000</v>
+        <v>44900</v>
       </c>
       <c r="H60" s="3">
-        <v>41000</v>
+        <v>42900</v>
       </c>
       <c r="I60" s="3">
-        <v>40500</v>
+        <v>41900</v>
       </c>
       <c r="J60" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K60" s="3">
         <v>27300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>30100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2695,8 +2838,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2736,8 +2882,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51100</v>
+        <v>54800</v>
       </c>
       <c r="E66" s="3">
-        <v>49300</v>
+        <v>52200</v>
       </c>
       <c r="F66" s="3">
-        <v>56300</v>
+        <v>50400</v>
       </c>
       <c r="G66" s="3">
-        <v>53200</v>
+        <v>57500</v>
       </c>
       <c r="H66" s="3">
-        <v>59900</v>
+        <v>54300</v>
       </c>
       <c r="I66" s="3">
-        <v>59000</v>
+        <v>61200</v>
       </c>
       <c r="J66" s="3">
+        <v>60200</v>
+      </c>
+      <c r="K66" s="3">
         <v>27300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6000</v>
+        <v>-4100</v>
       </c>
       <c r="E72" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="F72" s="3">
-        <v>-9400</v>
+        <v>-6600</v>
       </c>
       <c r="G72" s="3">
-        <v>-13700</v>
+        <v>-9600</v>
       </c>
       <c r="H72" s="3">
-        <v>16100</v>
+        <v>-13900</v>
       </c>
       <c r="I72" s="3">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="J72" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-25300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>122300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52500</v>
+        <v>55700</v>
       </c>
       <c r="E76" s="3">
-        <v>52100</v>
+        <v>53700</v>
       </c>
       <c r="F76" s="3">
-        <v>49100</v>
+        <v>53200</v>
       </c>
       <c r="G76" s="3">
-        <v>44900</v>
+        <v>50200</v>
       </c>
       <c r="H76" s="3">
-        <v>75500</v>
+        <v>45800</v>
       </c>
       <c r="I76" s="3">
-        <v>73800</v>
+        <v>77100</v>
       </c>
       <c r="J76" s="3">
+        <v>75400</v>
+      </c>
+      <c r="K76" s="3">
         <v>51300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>59000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>87600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>108600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>195000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42277</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E81" s="3">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="F81" s="3">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="G81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
-        <v>3200</v>
-      </c>
       <c r="J81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-52500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-89100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-44300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3446,11 +3645,11 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -3458,22 +3657,25 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2500</v>
       </c>
-      <c r="H89" s="3">
-        <v>1700</v>
-      </c>
       <c r="I89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J89" s="3">
         <v>4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-107300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>-46200</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,28 +3955,29 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+        <v>-2900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
@@ -3776,8 +3997,11 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,8 +4085,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3873,34 +4103,37 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-5400</v>
+        <v>2700</v>
       </c>
       <c r="I94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-20400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,35 +4323,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
-        <v>-4600</v>
-      </c>
       <c r="H100" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4121,8 +4367,11 @@
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4133,14 +4382,14 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -4156,14 +4405,17 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4174,33 +4426,36 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>-3200</v>
-      </c>
       <c r="I102" s="3">
-        <v>-14100</v>
+        <v>-3300</v>
       </c>
       <c r="J102" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-25600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-116000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DXF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DXF_QTR_FIN.xlsx
@@ -739,25 +739,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="E8" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="F8" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="G8" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="H8" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="I8" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="J8" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="K8" s="3">
         <v>4000</v>
@@ -801,7 +801,7 @@
         <v>2100</v>
       </c>
       <c r="J9" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K9" s="3">
         <v>2300</v>
@@ -827,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="E10" s="3">
         <v>6300</v>
@@ -836,16 +836,16 @@
         <v>5100</v>
       </c>
       <c r="G10" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="H10" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="I10" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="J10" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="K10" s="3">
         <v>1800</v>
@@ -1080,25 +1080,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="E17" s="3">
         <v>7400</v>
       </c>
       <c r="F17" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G17" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H17" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="I17" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="J17" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="K17" s="3">
         <v>3500</v>
@@ -1133,7 +1133,7 @@
         <v>1900</v>
       </c>
       <c r="G18" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H18" s="3">
         <v>1200</v>
@@ -1142,7 +1142,7 @@
         <v>2800</v>
       </c>
       <c r="J18" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="K18" s="3">
         <v>500</v>
@@ -1230,7 +1230,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E21" s="3">
         <v>800</v>
@@ -1239,16 +1239,16 @@
         <v>2200</v>
       </c>
       <c r="G21" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="H21" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I21" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J21" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="K21" s="3">
         <v>600</v>
@@ -1324,19 +1324,19 @@
         <v>600</v>
       </c>
       <c r="F23" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G23" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I23" s="3">
         <v>2800</v>
       </c>
       <c r="J23" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="K23" s="3">
         <v>600</v>
@@ -1456,10 +1456,10 @@
         <v>600</v>
       </c>
       <c r="F26" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G26" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="H26" s="3">
         <v>-800</v>
@@ -1993,7 +1993,7 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2063,25 +2063,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>103300</v>
+        <v>102000</v>
       </c>
       <c r="E43" s="3">
+        <v>97200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>94700</v>
+      </c>
+      <c r="G43" s="3">
         <v>98500</v>
       </c>
-      <c r="F43" s="3">
-        <v>96000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>99800</v>
-      </c>
       <c r="H43" s="3">
-        <v>91500</v>
+        <v>90300</v>
       </c>
       <c r="I43" s="3">
-        <v>133800</v>
+        <v>132000</v>
       </c>
       <c r="J43" s="3">
-        <v>129600</v>
+        <v>128000</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="J45" s="3">
         <v>2400</v>
@@ -2195,25 +2195,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>103400</v>
+        <v>102100</v>
       </c>
       <c r="E46" s="3">
+        <v>97300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>94800</v>
+      </c>
+      <c r="G46" s="3">
         <v>98600</v>
       </c>
-      <c r="F46" s="3">
-        <v>96000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>99900</v>
-      </c>
       <c r="H46" s="3">
-        <v>92200</v>
+        <v>91000</v>
       </c>
       <c r="I46" s="3">
-        <v>138100</v>
+        <v>136300</v>
       </c>
       <c r="J46" s="3">
-        <v>135400</v>
+        <v>133700</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>7000</v>
       </c>
       <c r="E48" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="F48" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="G48" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H48" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2547,25 +2547,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110500</v>
+        <v>109100</v>
       </c>
       <c r="E54" s="3">
-        <v>105800</v>
+        <v>104500</v>
       </c>
       <c r="F54" s="3">
-        <v>103600</v>
+        <v>102200</v>
       </c>
       <c r="G54" s="3">
-        <v>107600</v>
+        <v>106200</v>
       </c>
       <c r="H54" s="3">
-        <v>100100</v>
+        <v>98800</v>
       </c>
       <c r="I54" s="3">
-        <v>138300</v>
+        <v>136500</v>
       </c>
       <c r="J54" s="3">
-        <v>135600</v>
+        <v>133800</v>
       </c>
       <c r="K54" s="3">
         <v>78600</v>
@@ -2671,25 +2671,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26800</v>
+        <v>26400</v>
       </c>
       <c r="E58" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="F58" s="3">
-        <v>27000</v>
+        <v>26600</v>
       </c>
       <c r="G58" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="H58" s="3">
-        <v>31300</v>
+        <v>30900</v>
       </c>
       <c r="I58" s="3">
-        <v>35800</v>
+        <v>35400</v>
       </c>
       <c r="J58" s="3">
-        <v>35300</v>
+        <v>34900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2715,22 +2715,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="E59" s="3">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="F59" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="G59" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="H59" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="I59" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="J59" s="3">
         <v>6000</v>
@@ -2759,25 +2759,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>40900</v>
+        <v>40300</v>
       </c>
       <c r="E60" s="3">
-        <v>38800</v>
+        <v>38300</v>
       </c>
       <c r="F60" s="3">
-        <v>37100</v>
+        <v>36600</v>
       </c>
       <c r="G60" s="3">
-        <v>44900</v>
+        <v>44300</v>
       </c>
       <c r="H60" s="3">
-        <v>42900</v>
+        <v>42300</v>
       </c>
       <c r="I60" s="3">
-        <v>41900</v>
+        <v>41300</v>
       </c>
       <c r="J60" s="3">
-        <v>41400</v>
+        <v>40800</v>
       </c>
       <c r="K60" s="3">
         <v>27300</v>
@@ -3023,25 +3023,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54800</v>
+        <v>54100</v>
       </c>
       <c r="E66" s="3">
-        <v>52200</v>
+        <v>51500</v>
       </c>
       <c r="F66" s="3">
-        <v>50400</v>
+        <v>49700</v>
       </c>
       <c r="G66" s="3">
-        <v>57500</v>
+        <v>56700</v>
       </c>
       <c r="H66" s="3">
-        <v>54300</v>
+        <v>53600</v>
       </c>
       <c r="I66" s="3">
-        <v>61200</v>
+        <v>60400</v>
       </c>
       <c r="J66" s="3">
-        <v>60200</v>
+        <v>59400</v>
       </c>
       <c r="K66" s="3">
         <v>27300</v>
@@ -3267,19 +3267,19 @@
         <v>-6100</v>
       </c>
       <c r="F72" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="G72" s="3">
-        <v>-9600</v>
+        <v>-9500</v>
       </c>
       <c r="H72" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="I72" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="J72" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="K72" s="3">
         <v>-25300</v>
@@ -3437,25 +3437,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55700</v>
+        <v>55000</v>
       </c>
       <c r="E76" s="3">
-        <v>53700</v>
+        <v>53000</v>
       </c>
       <c r="F76" s="3">
-        <v>53200</v>
+        <v>52500</v>
       </c>
       <c r="G76" s="3">
-        <v>50200</v>
+        <v>49500</v>
       </c>
       <c r="H76" s="3">
-        <v>45800</v>
+        <v>45200</v>
       </c>
       <c r="I76" s="3">
-        <v>77100</v>
+        <v>76100</v>
       </c>
       <c r="J76" s="3">
-        <v>75400</v>
+        <v>74400</v>
       </c>
       <c r="K76" s="3">
         <v>51300</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G89" s="3">
         <v>400</v>
@@ -3915,7 +3915,7 @@
         <v>2500</v>
       </c>
       <c r="I89" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J89" s="3">
         <v>4000</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I94" s="3">
         <v>-5500</v>
@@ -4344,7 +4344,7 @@
         <v>-900</v>
       </c>
       <c r="H100" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="I100" s="3">
         <v>500</v>
@@ -4438,7 +4438,7 @@
         <v>-3300</v>
       </c>
       <c r="J102" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="K102" s="3">
         <v>2700</v>
